--- a/Mail trigger data/Mail filtering profile.xlsx
+++ b/Mail trigger data/Mail filtering profile.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="871" uniqueCount="836">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="873" uniqueCount="838">
   <si>
     <t>Name</t>
   </si>
@@ -559,9 +559,6 @@
   </si>
   <si>
     <t>administrator_email</t>
-  </si>
-  <si>
-    <t>XXX</t>
   </si>
   <si>
     <t xml:space="preserve">Dear User，
@@ -2598,6 +2595,18 @@
   </si>
   <si>
     <t>Include forwarding</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>CN-RPA004@ctf.com.cn;CN-RPA999@ctf.com.cn;CN-RPA003@ctf.com.cn;CN-RPA001@ctf.com.cn;CN-RPA002@ctf.com.cn;</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>Do not send</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>刘良进</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
 </sst>
@@ -3046,8 +3055,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C105"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="B40" sqref="B40"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -3094,11 +3103,11 @@
     </row>
     <row r="5" spans="1:3" ht="23.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="2" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="B5" s="7"/>
       <c r="C5" s="3" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="23.1" customHeight="1" x14ac:dyDescent="0.15">
@@ -3109,7 +3118,7 @@
         <v>0.33333333333333331</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="23.1" customHeight="1" x14ac:dyDescent="0.15">
@@ -3120,12 +3129,12 @@
         <v>0.75</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="23.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="3" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
       <c r="B8" s="25">
         <v>100000</v>
@@ -3134,17 +3143,17 @@
     </row>
     <row r="9" spans="1:3" ht="23.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="2" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="B9" s="7"/>
       <c r="C9" s="3"/>
     </row>
     <row r="10" spans="1:3" ht="23.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="3" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="B10" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
       <c r="C10" s="3"/>
     </row>
@@ -3155,26 +3164,26 @@
     </row>
     <row r="12" spans="1:3" ht="23.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="2" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="B12" s="7"/>
       <c r="C12" s="3"/>
     </row>
     <row r="13" spans="1:3" ht="23.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="3" t="s">
+        <v>647</v>
+      </c>
+      <c r="B13" s="7" t="s">
         <v>648</v>
-      </c>
-      <c r="B13" s="7" t="s">
-        <v>649</v>
       </c>
       <c r="C13" s="3"/>
     </row>
     <row r="14" spans="1:3" ht="23.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="3" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
       <c r="B14" s="26" t="s">
-        <v>826</v>
+        <v>825</v>
       </c>
       <c r="C14" s="3"/>
     </row>
@@ -3185,7 +3194,7 @@
     </row>
     <row r="16" spans="1:3" ht="23.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="2" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="B16" s="5"/>
       <c r="C16" s="3"/>
@@ -3198,7 +3207,7 @@
         <v>10</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="23.1" customHeight="1" x14ac:dyDescent="0.15">
@@ -3217,7 +3226,7 @@
     </row>
     <row r="20" spans="1:3" ht="23.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="2" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="B20" s="7"/>
       <c r="C20" s="3"/>
@@ -3227,10 +3236,10 @@
         <v>175</v>
       </c>
       <c r="B21" s="7" t="s">
-        <v>177</v>
+        <v>837</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
     </row>
     <row r="22" spans="1:3" ht="23.1" customHeight="1" x14ac:dyDescent="0.15">
@@ -3238,18 +3247,18 @@
         <v>176</v>
       </c>
       <c r="B22" s="9" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
     </row>
     <row r="23" spans="1:3" ht="23.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23" s="3" t="s">
-        <v>810</v>
+        <v>809</v>
       </c>
       <c r="B23" s="27" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
       <c r="C23" s="3"/>
     </row>
@@ -3260,7 +3269,7 @@
     </row>
     <row r="25" spans="1:3" ht="23.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A25" s="2" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="B25" s="7"/>
       <c r="C25" s="3"/>
@@ -3270,63 +3279,63 @@
         <v>88</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
     </row>
     <row r="27" spans="1:3" s="17" customFormat="1" ht="23.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A27" s="3" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B27" s="23" t="s">
-        <v>813</v>
+        <v>812</v>
       </c>
       <c r="C27" s="3"/>
     </row>
     <row r="28" spans="1:3" s="17" customFormat="1" ht="23.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A28" s="3" t="s">
+        <v>823</v>
+      </c>
+      <c r="B28" s="23" t="s">
         <v>824</v>
-      </c>
-      <c r="B28" s="23" t="s">
-        <v>825</v>
       </c>
       <c r="C28" s="3"/>
     </row>
     <row r="29" spans="1:3" s="17" customFormat="1" ht="23.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A29" s="3" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B29" s="23" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
       <c r="C29" s="3"/>
     </row>
     <row r="30" spans="1:3" s="17" customFormat="1" ht="23.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A30" s="3" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
       <c r="C30" s="3"/>
     </row>
     <row r="31" spans="1:3" s="17" customFormat="1" ht="23.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A31" s="3" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>811</v>
+        <v>810</v>
       </c>
       <c r="C31" s="3"/>
     </row>
     <row r="32" spans="1:3" s="22" customFormat="1" ht="23.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A32" s="11" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
       <c r="B32" s="12" t="s">
-        <v>834</v>
+        <v>833</v>
       </c>
       <c r="C32" s="13"/>
     </row>
@@ -3337,16 +3346,16 @@
     </row>
     <row r="34" spans="1:3" s="22" customFormat="1" ht="23.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A34" s="11" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
       <c r="B34" s="12" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
       <c r="C34" s="13"/>
     </row>
     <row r="35" spans="1:3" s="22" customFormat="1" ht="23.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A35" s="14" t="s">
-        <v>819</v>
+        <v>818</v>
       </c>
       <c r="B35" s="12"/>
       <c r="C35" s="13"/>
@@ -3356,10 +3365,10 @@
         <v>142</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
       <c r="C36" s="3" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
     </row>
     <row r="37" spans="1:3" ht="23.1" customHeight="1" x14ac:dyDescent="0.15">
@@ -3374,7 +3383,7 @@
     </row>
     <row r="39" spans="1:3" ht="23.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A39" s="2" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="B39" s="7"/>
       <c r="C39" s="3"/>
@@ -3402,7 +3411,7 @@
         <v>22</v>
       </c>
       <c r="B42" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
       <c r="C42" s="3"/>
     </row>
@@ -3413,7 +3422,7 @@
     </row>
     <row r="44" spans="1:3" ht="23.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A44" s="2" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="B44" s="7"/>
       <c r="C44" s="3"/>
@@ -3423,10 +3432,10 @@
         <v>25</v>
       </c>
       <c r="B45" s="7" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="C45" s="3" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
     </row>
     <row r="46" spans="1:3" ht="23.1" customHeight="1" x14ac:dyDescent="0.15">
@@ -3434,98 +3443,98 @@
         <v>26</v>
       </c>
       <c r="B46" s="7" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="C46" s="3" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
     </row>
     <row r="47" spans="1:3" ht="23.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A47" s="3" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B47" s="24" t="s">
-        <v>829</v>
+        <v>828</v>
       </c>
       <c r="C47" s="3" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
     </row>
     <row r="48" spans="1:3" ht="23.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A48" s="3" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B48" s="7" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="C48" s="3" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
     </row>
     <row r="49" spans="1:3" ht="23.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A49" s="3" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B49" s="24" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
       <c r="C49" s="3" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
     </row>
     <row r="50" spans="1:3" ht="23.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A50" s="3" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B50" s="24" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
       <c r="C50" s="3" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
     </row>
     <row r="51" spans="1:3" ht="23.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A51" s="3" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B51" s="24" t="s">
-        <v>832</v>
+        <v>831</v>
       </c>
       <c r="C51" s="3" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
     </row>
     <row r="52" spans="1:3" ht="23.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A52" s="3" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="B52" s="24" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="C52" s="3" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
     </row>
     <row r="53" spans="1:3" ht="23.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A53" s="3" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B53" s="24" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="C53" s="3" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
     </row>
     <row r="54" spans="1:3" ht="23.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A54" s="3" t="s">
-        <v>776</v>
+        <v>775</v>
       </c>
       <c r="B54" s="24" t="s">
-        <v>833</v>
+        <v>832</v>
       </c>
       <c r="C54" s="3" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
     </row>
     <row r="55" spans="1:3" ht="23.1" customHeight="1" x14ac:dyDescent="0.15">
@@ -3535,7 +3544,7 @@
     </row>
     <row r="56" spans="1:3" ht="23.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A56" s="2" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="B56" s="7"/>
       <c r="C56" s="3"/>
@@ -3548,7 +3557,7 @@
         <v>10</v>
       </c>
       <c r="C57" s="3" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
     </row>
     <row r="58" spans="1:3" ht="23.1" customHeight="1" x14ac:dyDescent="0.15">
@@ -3558,7 +3567,7 @@
     </row>
     <row r="59" spans="1:3" ht="23.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A59" s="2" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="B59" s="7"/>
       <c r="C59" s="3"/>
@@ -3571,7 +3580,7 @@
         <v>10</v>
       </c>
       <c r="C60" s="3" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
     </row>
     <row r="61" spans="1:3" ht="23.1" customHeight="1" x14ac:dyDescent="0.15">
@@ -3581,7 +3590,7 @@
     </row>
     <row r="62" spans="1:3" ht="23.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A62" s="2" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="B62" s="7"/>
       <c r="C62" s="3"/>
@@ -3591,10 +3600,10 @@
         <v>74</v>
       </c>
       <c r="B63" s="7" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="C63" s="3" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
     </row>
     <row r="64" spans="1:3" ht="23.1" customHeight="1" x14ac:dyDescent="0.15">
@@ -3604,7 +3613,7 @@
     </row>
     <row r="65" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A65" s="2" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="B65" s="7"/>
       <c r="C65" s="3"/>
@@ -3617,7 +3626,7 @@
         <v>11</v>
       </c>
       <c r="C66" s="3" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
     </row>
     <row r="67" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -3628,7 +3637,7 @@
         <v>117</v>
       </c>
       <c r="C67" s="3" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="68" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -3638,20 +3647,20 @@
     </row>
     <row r="69" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A69" s="2" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="B69" s="7"/>
       <c r="C69" s="3"/>
     </row>
     <row r="70" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A70" s="3" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="B70" s="7" t="s">
         <v>10</v>
       </c>
       <c r="C70" s="3" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
     </row>
     <row r="71" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -3661,26 +3670,26 @@
     </row>
     <row r="72" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A72" s="2" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
       <c r="B72" s="7"/>
       <c r="C72" s="3"/>
     </row>
     <row r="73" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A73" s="3" t="s">
+        <v>696</v>
+      </c>
+      <c r="B73" s="7" t="s">
         <v>697</v>
-      </c>
-      <c r="B73" s="7" t="s">
-        <v>698</v>
       </c>
       <c r="C73" s="3"/>
     </row>
     <row r="74" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A74" s="3" t="s">
+        <v>704</v>
+      </c>
+      <c r="B74" s="7" t="s">
         <v>705</v>
-      </c>
-      <c r="B74" s="7" t="s">
-        <v>706</v>
       </c>
       <c r="C74" s="3"/>
     </row>
@@ -3691,17 +3700,17 @@
     </row>
     <row r="76" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A76" s="2" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
       <c r="B76" s="7"/>
       <c r="C76" s="3"/>
     </row>
     <row r="77" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A77" s="20" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
       <c r="B77" s="21" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
       <c r="C77" s="3"/>
     </row>
@@ -3712,10 +3721,10 @@
     </row>
     <row r="79" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A79" s="3" t="s">
-        <v>835</v>
+        <v>834</v>
       </c>
       <c r="B79" s="7" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
       <c r="C79" s="3"/>
     </row>
@@ -3729,9 +3738,13 @@
       <c r="B81" s="7"/>
       <c r="C81" s="3"/>
     </row>
-    <row r="82" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A82" s="3"/>
-      <c r="B82" s="7"/>
+    <row r="82" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A82" s="3" t="s">
+        <v>836</v>
+      </c>
+      <c r="B82" t="s">
+        <v>835</v>
+      </c>
       <c r="C82" s="3"/>
     </row>
     <row r="83" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -4252,28 +4265,28 @@
     </row>
     <row r="44" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="3" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="B44" s="3" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="C44" s="3"/>
     </row>
     <row r="45" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="3" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="B45" s="3" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="C45" s="3"/>
     </row>
     <row r="46" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="3" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
       <c r="B46" s="3" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="C46" s="3"/>
     </row>
@@ -4502,7 +4515,7 @@
         <v>138</v>
       </c>
       <c r="B75" s="3" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="C75" s="3"/>
     </row>
@@ -4586,28 +4599,28 @@
     </row>
     <row r="86" spans="1:3" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A86" s="3" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B86" s="3" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="C86" s="3"/>
     </row>
     <row r="87" spans="1:3" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A87" s="3" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B87" s="3" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="C87" s="3"/>
     </row>
     <row r="88" spans="1:3" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A88" s="3" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B88" s="3" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="C88" s="3"/>
     </row>
@@ -4618,28 +4631,28 @@
     </row>
     <row r="90" spans="1:3" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A90" s="3" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B90" s="3" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="C90" s="3"/>
     </row>
     <row r="91" spans="1:3" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A91" s="3" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B91" s="3" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
       <c r="C91" s="3"/>
     </row>
     <row r="92" spans="1:3" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A92" s="3" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B92" s="3" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C92" s="3"/>
     </row>
@@ -4650,28 +4663,28 @@
     </row>
     <row r="94" spans="1:3" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A94" s="3" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B94" s="3" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C94" s="3"/>
     </row>
     <row r="95" spans="1:3" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A95" s="3" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B95" s="3" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="C95" s="3"/>
     </row>
     <row r="96" spans="1:3" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A96" s="3" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B96" s="3" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C96" s="3"/>
     </row>
@@ -4682,28 +4695,28 @@
     </row>
     <row r="98" spans="1:3" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A98" s="3" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B98" s="3" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C98" s="3"/>
     </row>
     <row r="99" spans="1:3" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A99" s="3" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B99" s="3" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C99" s="3"/>
     </row>
     <row r="100" spans="1:3" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A100" s="3" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="B100" s="3" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C100" s="3"/>
     </row>
@@ -4714,35 +4727,35 @@
     </row>
     <row r="102" spans="1:3" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A102" s="3" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="B102" s="3"/>
       <c r="C102" s="3"/>
     </row>
     <row r="103" spans="1:3" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A103" s="3" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="B103" s="3" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="C103" s="3"/>
     </row>
     <row r="104" spans="1:3" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A104" s="3" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="B104" s="3" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C104" s="3"/>
     </row>
     <row r="105" spans="1:3" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A105" s="3" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B105" s="3" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="C105" s="3"/>
     </row>
@@ -4753,28 +4766,28 @@
     </row>
     <row r="107" spans="1:3" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A107" s="3" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="B107" s="3" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="C107" s="3"/>
     </row>
     <row r="108" spans="1:3" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A108" s="3" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B108" s="3" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="C108" s="3"/>
     </row>
     <row r="109" spans="1:3" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A109" s="3" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B109" s="3" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="C109" s="3"/>
     </row>
@@ -4785,28 +4798,28 @@
     </row>
     <row r="111" spans="1:3" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A111" s="3" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="B111" s="3" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="C111" s="3"/>
     </row>
     <row r="112" spans="1:3" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A112" s="3" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B112" s="3" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="C112" s="3"/>
     </row>
     <row r="113" spans="1:3" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A113" s="3" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="B113" s="3" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="C113" s="3"/>
     </row>
@@ -4817,28 +4830,28 @@
     </row>
     <row r="115" spans="1:3" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A115" s="3" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B115" s="3" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="C115" s="3"/>
     </row>
     <row r="116" spans="1:3" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A116" s="3" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="B116" s="3" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="C116" s="3"/>
     </row>
     <row r="117" spans="1:3" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A117" s="3" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="B117" s="3" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="C117" s="3"/>
     </row>
@@ -4849,28 +4862,28 @@
     </row>
     <row r="119" spans="1:3" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A119" s="3" t="s">
+        <v>249</v>
+      </c>
+      <c r="B119" s="3" t="s">
         <v>250</v>
-      </c>
-      <c r="B119" s="3" t="s">
-        <v>251</v>
       </c>
       <c r="C119" s="3"/>
     </row>
     <row r="120" spans="1:3" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A120" s="3" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="B120" s="3" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="C120" s="3"/>
     </row>
     <row r="121" spans="1:3" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A121" s="3" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="B121" s="3" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="C121" s="3"/>
     </row>
@@ -4881,28 +4894,28 @@
     </row>
     <row r="123" spans="1:3" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A123" s="3" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="B123" s="3" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="C123" s="3"/>
     </row>
     <row r="124" spans="1:3" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A124" s="3" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B124" s="3" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="C124" s="3"/>
     </row>
     <row r="125" spans="1:3" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A125" s="3" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B125" s="3" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="C125" s="3"/>
     </row>
@@ -4913,28 +4926,28 @@
     </row>
     <row r="127" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A127" s="3" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="B127" s="3" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="C127" s="3"/>
     </row>
     <row r="128" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A128" s="3" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="B128" s="3" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="C128" s="3"/>
     </row>
     <row r="129" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A129" s="3" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="B129" s="3" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="C129" s="3"/>
     </row>
@@ -4945,28 +4958,28 @@
     </row>
     <row r="131" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A131" s="3" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="B131" s="3" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="C131" s="3"/>
     </row>
     <row r="132" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A132" s="3" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="B132" s="3" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="C132" s="3"/>
     </row>
     <row r="133" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A133" s="3" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="B133" s="3" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="C133" s="3"/>
     </row>
@@ -4977,28 +4990,28 @@
     </row>
     <row r="135" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A135" s="3" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="B135" s="3" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="C135" s="3"/>
     </row>
     <row r="136" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A136" s="3" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="B136" s="3" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="C136" s="3"/>
     </row>
     <row r="137" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A137" s="3" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="B137" s="3" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="C137" s="3"/>
     </row>
@@ -5009,28 +5022,28 @@
     </row>
     <row r="139" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A139" s="3" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="B139" s="3" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="C139" s="3"/>
     </row>
     <row r="140" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A140" s="3" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="B140" s="3" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="C140" s="3"/>
     </row>
     <row r="141" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A141" s="3" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="B141" s="3" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="C141" s="3"/>
     </row>
@@ -5041,28 +5054,28 @@
     </row>
     <row r="143" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A143" s="3" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="B143" s="3" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="C143" s="3"/>
     </row>
     <row r="144" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A144" s="3" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="B144" s="3" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="C144" s="3"/>
     </row>
     <row r="145" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A145" s="3" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="B145" s="3" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="C145" s="3"/>
     </row>
@@ -5073,28 +5086,28 @@
     </row>
     <row r="147" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A147" s="3" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="B147" s="3" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="C147" s="3"/>
     </row>
     <row r="148" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A148" s="3" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="B148" s="3" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="C148" s="3"/>
     </row>
     <row r="149" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A149" s="3" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="B149" s="3" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="C149" s="3"/>
     </row>
@@ -5105,28 +5118,28 @@
     </row>
     <row r="151" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A151" s="3" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="B151" s="3" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="C151" s="3"/>
     </row>
     <row r="152" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A152" s="3" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="B152" s="3" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="C152" s="3"/>
     </row>
     <row r="153" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A153" s="3" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="B153" s="3" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="C153" s="3"/>
     </row>
@@ -5137,28 +5150,28 @@
     </row>
     <row r="155" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A155" s="3" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="B155" s="3" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="C155" s="3"/>
     </row>
     <row r="156" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A156" s="3" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="B156" s="3" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="C156" s="3"/>
     </row>
     <row r="157" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A157" s="3" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="B157" s="3" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="C157" s="3"/>
     </row>
@@ -5169,28 +5182,28 @@
     </row>
     <row r="159" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A159" s="3" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="B159" s="3" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="C159" s="3"/>
     </row>
     <row r="160" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A160" s="3" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="B160" s="3" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="C160" s="3"/>
     </row>
     <row r="161" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A161" s="3" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="B161" s="3" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="C161" s="3"/>
     </row>
@@ -5201,28 +5214,28 @@
     </row>
     <row r="163" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A163" s="3" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="B163" s="3" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="C163" s="3"/>
     </row>
     <row r="164" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A164" s="3" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="B164" s="3" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="C164" s="3"/>
     </row>
     <row r="165" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A165" s="3" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="B165" s="3" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="C165" s="3"/>
     </row>
@@ -5233,28 +5246,28 @@
     </row>
     <row r="167" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A167" s="3" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="B167" s="3" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="C167" s="3"/>
     </row>
     <row r="168" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A168" s="3" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="B168" s="3" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="C168" s="3"/>
     </row>
     <row r="169" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A169" s="3" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="B169" s="3" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="C169" s="3"/>
     </row>
@@ -5265,28 +5278,28 @@
     </row>
     <row r="171" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A171" s="3" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="B171" s="3" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="C171" s="3"/>
     </row>
     <row r="172" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A172" s="3" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="B172" s="3" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
       <c r="C172" s="3"/>
     </row>
     <row r="173" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A173" s="3" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="B173" s="3" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="C173" s="3"/>
     </row>
@@ -5297,28 +5310,28 @@
     </row>
     <row r="175" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A175" s="3" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="B175" s="3" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="C175" s="3"/>
     </row>
     <row r="176" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A176" s="3" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="B176" s="3" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="C176" s="3"/>
     </row>
     <row r="177" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A177" s="3" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="B177" s="3" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="C177" s="3"/>
     </row>
@@ -5329,28 +5342,28 @@
     </row>
     <row r="179" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A179" s="3" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="B179" s="3" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="C179" s="3"/>
     </row>
     <row r="180" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A180" s="3" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="B180" s="3" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="C180" s="3"/>
     </row>
     <row r="181" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A181" s="3" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="B181" s="3" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="C181" s="3"/>
     </row>
@@ -5361,28 +5374,28 @@
     </row>
     <row r="183" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A183" s="3" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="B183" s="3" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="C183" s="3"/>
     </row>
     <row r="184" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A184" s="3" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="B184" s="3" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="C184" s="3"/>
     </row>
     <row r="185" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A185" s="3" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="B185" s="3" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="C185" s="3"/>
     </row>
@@ -5393,28 +5406,28 @@
     </row>
     <row r="187" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A187" s="3" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="B187" s="3" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="C187" s="3"/>
     </row>
     <row r="188" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A188" s="3" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="B188" s="3" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="C188" s="3"/>
     </row>
     <row r="189" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A189" s="3" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="B189" s="3" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="C189" s="3"/>
     </row>
@@ -5425,28 +5438,28 @@
     </row>
     <row r="191" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A191" s="3" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="B191" s="3" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="C191" s="3"/>
     </row>
     <row r="192" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A192" s="3" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="B192" s="3" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="C192" s="3"/>
     </row>
     <row r="193" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A193" s="3" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="B193" s="3" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="C193" s="3"/>
     </row>
@@ -5457,28 +5470,28 @@
     </row>
     <row r="195" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A195" s="3" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="B195" s="3" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="C195" s="3"/>
     </row>
     <row r="196" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A196" s="3" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="B196" s="3" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="C196" s="3"/>
     </row>
     <row r="197" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A197" s="3" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="B197" s="3" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="C197" s="3"/>
     </row>
@@ -5489,28 +5502,28 @@
     </row>
     <row r="199" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A199" s="3" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="B199" s="3" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="C199" s="3"/>
     </row>
     <row r="200" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A200" s="3" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="B200" s="3" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="C200" s="3"/>
     </row>
     <row r="201" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A201" s="3" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="B201" s="3" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="C201" s="3"/>
     </row>
@@ -5521,28 +5534,28 @@
     </row>
     <row r="203" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A203" s="3" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="B203" s="3" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="C203" s="3"/>
     </row>
     <row r="204" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A204" s="3" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="B204" s="3" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="C204" s="3"/>
     </row>
     <row r="205" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A205" s="3" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="B205" s="3" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="C205" s="3"/>
     </row>
@@ -5553,28 +5566,28 @@
     </row>
     <row r="207" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A207" s="3" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="B207" s="3" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="C207" s="3"/>
     </row>
     <row r="208" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A208" s="3" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="B208" s="3" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="C208" s="3"/>
     </row>
     <row r="209" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A209" s="3" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="B209" s="3" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="C209" s="3"/>
     </row>
@@ -5585,28 +5598,28 @@
     </row>
     <row r="211" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A211" s="3" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="B211" s="3" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="C211" s="3"/>
     </row>
     <row r="212" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A212" s="3" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="B212" s="3" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="C212" s="3"/>
     </row>
     <row r="213" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A213" s="3" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="B213" s="3" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="C213" s="3"/>
     </row>
@@ -5617,28 +5630,28 @@
     </row>
     <row r="215" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A215" s="3" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="B215" s="3" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="C215" s="3"/>
     </row>
     <row r="216" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A216" s="3" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="B216" s="3" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="C216" s="3"/>
     </row>
     <row r="217" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A217" s="3" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="B217" s="3" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="C217" s="3"/>
     </row>
@@ -5649,28 +5662,28 @@
     </row>
     <row r="219" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A219" s="3" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="B219" s="3" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="C219" s="3"/>
     </row>
     <row r="220" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A220" s="3" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="B220" s="3" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="C220" s="3"/>
     </row>
     <row r="221" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A221" s="3" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="B221" s="3" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="C221" s="3"/>
     </row>
@@ -5681,28 +5694,28 @@
     </row>
     <row r="223" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A223" s="3" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="B223" s="3" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="C223" s="3"/>
     </row>
     <row r="224" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A224" s="3" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="B224" s="3" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="C224" s="3"/>
     </row>
     <row r="225" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A225" s="3" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="B225" s="3" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="C225" s="3"/>
     </row>
@@ -5713,28 +5726,28 @@
     </row>
     <row r="227" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A227" s="3" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="B227" s="3" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="C227" s="3"/>
     </row>
     <row r="228" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A228" s="3" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="B228" s="3" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="C228" s="3"/>
     </row>
     <row r="229" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A229" s="3" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="B229" s="3" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="C229" s="3"/>
     </row>
@@ -5745,28 +5758,28 @@
     </row>
     <row r="231" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A231" s="3" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="B231" s="3" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="C231" s="3"/>
     </row>
     <row r="232" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A232" s="3" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="B232" s="3" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="C232" s="3"/>
     </row>
     <row r="233" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A233" s="3" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="B233" s="3" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="C233" s="3"/>
     </row>
@@ -5777,28 +5790,28 @@
     </row>
     <row r="235" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A235" s="3" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="B235" s="3" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="C235" s="3"/>
     </row>
     <row r="236" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A236" s="3" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="B236" s="3" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="C236" s="3"/>
     </row>
     <row r="237" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A237" s="3" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="B237" s="3" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="C237" s="3"/>
     </row>
@@ -5809,28 +5822,28 @@
     </row>
     <row r="239" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A239" s="3" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="B239" s="3" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="C239" s="3"/>
     </row>
     <row r="240" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A240" s="3" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="B240" s="3" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="C240" s="3"/>
     </row>
     <row r="241" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A241" s="3" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="B241" s="3" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="C241" s="3"/>
     </row>
@@ -5841,28 +5854,28 @@
     </row>
     <row r="243" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A243" s="3" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="B243" s="3" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="C243" s="3"/>
     </row>
     <row r="244" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A244" s="3" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="B244" s="3" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="C244" s="3"/>
     </row>
     <row r="245" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A245" s="3" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="B245" s="3" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="C245" s="3"/>
     </row>
@@ -5873,28 +5886,28 @@
     </row>
     <row r="247" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A247" s="3" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="B247" s="3" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="C247" s="3"/>
     </row>
     <row r="248" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A248" s="3" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="B248" s="3" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="C248" s="3"/>
     </row>
     <row r="249" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A249" s="3" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="B249" s="3" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="C249" s="3"/>
     </row>
@@ -5905,28 +5918,28 @@
     </row>
     <row r="251" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A251" s="3" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="B251" s="3" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="C251" s="3"/>
     </row>
     <row r="252" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A252" s="3" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="B252" s="3" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="C252" s="3"/>
     </row>
     <row r="253" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A253" s="3" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="B253" s="3" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="C253" s="3"/>
     </row>
@@ -5937,28 +5950,28 @@
     </row>
     <row r="255" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A255" s="3" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="B255" s="3" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="C255" s="3"/>
     </row>
     <row r="256" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A256" s="3" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="B256" s="3" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="C256" s="3"/>
     </row>
     <row r="257" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A257" s="3" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="B257" s="3" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="C257" s="3"/>
     </row>
@@ -5969,28 +5982,28 @@
     </row>
     <row r="259" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A259" s="3" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="B259" s="3" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="C259" s="3"/>
     </row>
     <row r="260" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A260" s="3" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="B260" s="3" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="C260" s="3"/>
     </row>
     <row r="261" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A261" s="3" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="B261" s="3" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="C261" s="3"/>
     </row>
@@ -6001,28 +6014,28 @@
     </row>
     <row r="263" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A263" s="3" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="B263" s="3" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="C263" s="3"/>
     </row>
     <row r="264" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A264" s="3" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="B264" s="3" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="C264" s="3"/>
     </row>
     <row r="265" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A265" s="3" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="B265" s="3" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="C265" s="3"/>
     </row>
@@ -6033,28 +6046,28 @@
     </row>
     <row r="267" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A267" s="3" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="B267" s="3" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="C267" s="3"/>
     </row>
     <row r="268" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A268" s="3" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="B268" s="3" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="C268" s="3"/>
     </row>
     <row r="269" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A269" s="3" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="B269" s="3" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="C269" s="3"/>
     </row>
@@ -6065,25 +6078,25 @@
     </row>
     <row r="271" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A271" s="3" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="B271" s="3" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="C271" s="3"/>
     </row>
     <row r="272" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A272" s="3" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="B272" s="3" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="C272" s="3"/>
     </row>
     <row r="273" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A273" s="3" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="B273" s="3" t="s">
         <v>159</v>
@@ -6097,28 +6110,28 @@
     </row>
     <row r="275" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A275" s="3" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="B275" s="3" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="C275" s="3"/>
     </row>
     <row r="276" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A276" s="3" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="B276" s="3" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="C276" s="3"/>
     </row>
     <row r="277" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A277" s="3" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="B277" s="3" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="C277" s="3"/>
     </row>
@@ -6129,28 +6142,28 @@
     </row>
     <row r="279" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A279" s="3" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="B279" s="3" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="C279" s="3"/>
     </row>
     <row r="280" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A280" s="3" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="B280" s="3" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="C280" s="3"/>
     </row>
     <row r="281" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A281" s="3" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="B281" s="3" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="C281" s="3"/>
     </row>
@@ -6161,28 +6174,28 @@
     </row>
     <row r="283" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A283" s="3" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="B283" s="3" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="C283" s="3"/>
     </row>
     <row r="284" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A284" s="3" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="B284" s="3" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="C284" s="3"/>
     </row>
     <row r="285" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A285" s="3" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="B285" s="3" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="C285" s="3"/>
     </row>
@@ -6193,28 +6206,28 @@
     </row>
     <row r="287" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A287" s="3" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="B287" s="3" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="C287" s="3"/>
     </row>
     <row r="288" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A288" s="3" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="B288" s="3" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="C288" s="3"/>
     </row>
     <row r="289" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A289" s="3" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="B289" s="3" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="C289" s="3"/>
     </row>
@@ -6225,28 +6238,28 @@
     </row>
     <row r="291" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A291" s="3" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="B291" s="3" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="C291" s="3"/>
     </row>
     <row r="292" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A292" s="3" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="B292" s="3" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="C292" s="3"/>
     </row>
     <row r="293" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A293" s="3" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="B293" s="3" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="C293" s="3"/>
     </row>
@@ -6257,28 +6270,28 @@
     </row>
     <row r="295" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A295" s="3" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="B295" s="3" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="C295" s="3"/>
     </row>
     <row r="296" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A296" s="3" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="B296" s="3" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="C296" s="3"/>
     </row>
     <row r="297" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A297" s="3" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="B297" s="3" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="C297" s="3"/>
     </row>
@@ -6289,28 +6302,28 @@
     </row>
     <row r="299" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A299" s="3" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="B299" s="3" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="C299" s="3"/>
     </row>
     <row r="300" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A300" s="3" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="B300" s="3" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="C300" s="3"/>
     </row>
     <row r="301" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A301" s="3" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="B301" s="3" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="C301" s="3"/>
     </row>
@@ -6321,28 +6334,28 @@
     </row>
     <row r="303" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A303" s="3" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="B303" s="3" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="C303" s="3"/>
     </row>
     <row r="304" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A304" s="3" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="B304" s="3" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="C304" s="3"/>
     </row>
     <row r="305" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A305" s="3" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="B305" s="3" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="C305" s="3"/>
     </row>
@@ -6353,28 +6366,28 @@
     </row>
     <row r="307" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A307" s="3" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="B307" s="3" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="C307" s="3"/>
     </row>
     <row r="308" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A308" s="3" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="B308" s="3" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="C308" s="3"/>
     </row>
     <row r="309" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A309" s="3" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="B309" s="3" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="C309" s="3"/>
     </row>
@@ -6385,28 +6398,28 @@
     </row>
     <row r="311" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A311" s="3" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="B311" s="3" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="C311" s="3"/>
     </row>
     <row r="312" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A312" s="3" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="B312" s="3" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="C312" s="3"/>
     </row>
     <row r="313" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A313" s="3" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="B313" s="3" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="C313" s="3"/>
     </row>
@@ -6417,28 +6430,28 @@
     </row>
     <row r="315" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A315" s="3" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="B315" s="3" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="C315" s="3"/>
     </row>
     <row r="316" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A316" s="3" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="B316" s="3" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="C316" s="3"/>
     </row>
     <row r="317" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A317" s="3" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="B317" s="3" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="C317" s="3"/>
     </row>
@@ -6449,28 +6462,28 @@
     </row>
     <row r="319" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A319" s="3" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="B319" s="3" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="C319" s="3"/>
     </row>
     <row r="320" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A320" s="3" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="B320" s="3" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="C320" s="3"/>
     </row>
     <row r="321" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A321" s="3" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="B321" s="3" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="C321" s="3"/>
     </row>
@@ -6481,28 +6494,28 @@
     </row>
     <row r="323" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A323" s="3" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="B323" s="3" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="C323" s="3"/>
     </row>
     <row r="324" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A324" s="3" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="B324" s="3" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="C324" s="3"/>
     </row>
     <row r="325" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A325" s="3" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="B325" s="3" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="C325" s="3"/>
     </row>
@@ -6513,28 +6526,28 @@
     </row>
     <row r="327" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A327" s="3" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="B327" s="3" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="C327" s="3"/>
     </row>
     <row r="328" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A328" s="3" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="B328" s="3" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="C328" s="3"/>
     </row>
     <row r="329" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A329" s="3" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="B329" s="3" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="C329" s="3"/>
     </row>
@@ -6545,28 +6558,28 @@
     </row>
     <row r="331" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A331" s="3" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="B331" s="3" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="C331" s="3"/>
     </row>
     <row r="332" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A332" s="3" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="B332" s="3" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="C332" s="3"/>
     </row>
     <row r="333" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A333" s="3" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="B333" s="3" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="C333" s="3"/>
     </row>
@@ -6577,28 +6590,28 @@
     </row>
     <row r="335" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A335" s="3" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="B335" s="3" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="C335" s="3"/>
     </row>
     <row r="336" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A336" s="3" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="B336" s="3" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="C336" s="3"/>
     </row>
     <row r="337" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A337" s="3" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="B337" s="3" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="C337" s="3"/>
     </row>
@@ -6609,28 +6622,28 @@
     </row>
     <row r="339" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A339" s="3" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="B339" s="3" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="C339" s="3"/>
     </row>
     <row r="340" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A340" s="3" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="B340" s="3" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="C340" s="3"/>
     </row>
     <row r="341" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A341" s="3" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="B341" s="3" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="C341" s="3"/>
     </row>
@@ -6641,28 +6654,28 @@
     </row>
     <row r="343" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A343" s="3" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="B343" s="3" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="C343" s="3"/>
     </row>
     <row r="344" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A344" s="3" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="B344" s="3" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="C344" s="3"/>
     </row>
     <row r="345" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A345" s="3" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="B345" s="3" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="C345" s="3"/>
     </row>
@@ -6673,28 +6686,28 @@
     </row>
     <row r="347" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A347" s="3" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="B347" s="3" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="C347" s="3"/>
     </row>
     <row r="348" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A348" s="3" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="B348" s="3" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="C348" s="3"/>
     </row>
     <row r="349" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A349" s="3" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="B349" s="3" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="C349" s="3"/>
     </row>
@@ -6705,28 +6718,28 @@
     </row>
     <row r="351" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A351" s="3" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="B351" s="3" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="C351" s="3"/>
     </row>
     <row r="352" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A352" s="3" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="B352" s="3" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="C352" s="3"/>
     </row>
     <row r="353" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A353" s="3" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="B353" s="3" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="C353" s="3"/>
     </row>
@@ -6737,28 +6750,28 @@
     </row>
     <row r="355" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A355" s="3" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="B355" s="3" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="C355" s="3"/>
     </row>
     <row r="356" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A356" s="3" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="B356" s="3" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="C356" s="3"/>
     </row>
     <row r="357" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A357" s="3" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="B357" s="3" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="C357" s="3"/>
     </row>
@@ -6769,28 +6782,28 @@
     </row>
     <row r="359" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A359" s="3" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="B359" s="3" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="C359" s="3"/>
     </row>
     <row r="360" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A360" s="3" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="B360" s="3" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="C360" s="3"/>
     </row>
     <row r="361" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A361" s="3" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="B361" s="3" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="C361" s="3"/>
     </row>
@@ -6801,28 +6814,28 @@
     </row>
     <row r="363" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A363" s="3" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="B363" s="3" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="C363" s="3"/>
     </row>
     <row r="364" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A364" s="3" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="B364" s="3" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="C364" s="3"/>
     </row>
     <row r="365" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A365" s="3" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="B365" s="3" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="C365" s="3"/>
     </row>
@@ -6833,28 +6846,28 @@
     </row>
     <row r="367" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A367" s="3" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="B367" s="3" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="C367" s="3"/>
     </row>
     <row r="368" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A368" s="3" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="B368" s="3" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="C368" s="3"/>
     </row>
     <row r="369" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A369" s="3" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="B369" s="3" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="C369" s="3"/>
     </row>
@@ -6865,59 +6878,59 @@
     </row>
     <row r="371" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A371" s="3" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="B371" s="3" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="C371" s="3"/>
     </row>
     <row r="372" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A372" s="3" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="B372" s="3" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="C372" s="3"/>
     </row>
     <row r="373" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A373" s="3" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="B373" s="3" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="C373" s="3"/>
     </row>
     <row r="374" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A374" s="3"/>
       <c r="B374" s="3" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="C374" s="3"/>
     </row>
     <row r="375" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A375" s="3" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="C375" s="3"/>
     </row>
     <row r="376" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A376" s="3" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="B376" s="3" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="C376" s="3"/>
     </row>
     <row r="377" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A377" s="3" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="B377" s="3" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="C377" s="3"/>
     </row>
@@ -6928,28 +6941,28 @@
     </row>
     <row r="379" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A379" s="3" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="B379" s="3" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="C379" s="3"/>
     </row>
     <row r="380" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A380" s="3" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="B380" s="3" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="C380" s="3"/>
     </row>
     <row r="381" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A381" s="3" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="B381" s="3" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="C381" s="3"/>
     </row>
@@ -6965,28 +6978,28 @@
     </row>
     <row r="384" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A384" s="3" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="B384" s="3" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="C384" s="3"/>
     </row>
     <row r="385" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A385" s="3" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="B385" s="3" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="C385" s="3"/>
     </row>
     <row r="386" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A386" s="3" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="B386" s="3" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="C386" s="3"/>
     </row>
@@ -6997,28 +7010,28 @@
     </row>
     <row r="388" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A388" s="3" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
       <c r="B388" s="3" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="C388" s="3"/>
     </row>
     <row r="389" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A389" s="3" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="B389" s="3" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="C389" s="3"/>
     </row>
     <row r="390" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A390" s="3" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="B390" s="3" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="C390" s="3"/>
     </row>
@@ -7034,28 +7047,28 @@
     </row>
     <row r="393" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A393" s="3" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
       <c r="B393" s="3" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
       <c r="C393" s="3"/>
     </row>
     <row r="394" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A394" s="3" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
       <c r="B394" s="3" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
       <c r="C394" s="3"/>
     </row>
     <row r="395" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A395" s="3" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
       <c r="B395" s="3" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="C395" s="3"/>
     </row>
@@ -7066,28 +7079,28 @@
     </row>
     <row r="397" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A397" s="3" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
       <c r="B397" s="3" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="C397" s="3"/>
     </row>
     <row r="398" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A398" s="3" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="B398" s="3" t="s">
-        <v>721</v>
+        <v>720</v>
       </c>
       <c r="C398" s="3"/>
     </row>
     <row r="399" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A399" s="3" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
       <c r="B399" s="3" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="C399" s="3"/>
     </row>
@@ -7098,28 +7111,28 @@
     </row>
     <row r="401" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A401" s="3" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="B401" s="3" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
       <c r="C401" s="3"/>
     </row>
     <row r="402" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A402" s="3" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
       <c r="B402" s="3" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="C402" s="3"/>
     </row>
     <row r="403" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A403" s="3" t="s">
-        <v>732</v>
+        <v>731</v>
       </c>
       <c r="B403" s="3" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="C403" s="3"/>
     </row>
@@ -7130,28 +7143,28 @@
     </row>
     <row r="405" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A405" s="3" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
       <c r="B405" s="3" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
       <c r="C405" s="3"/>
     </row>
     <row r="406" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A406" s="3" t="s">
-        <v>737</v>
+        <v>736</v>
       </c>
       <c r="B406" s="3" t="s">
-        <v>733</v>
+        <v>732</v>
       </c>
       <c r="C406" s="3"/>
     </row>
     <row r="407" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A407" s="3" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="B407" s="3" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
       <c r="C407" s="3"/>
     </row>
@@ -7162,28 +7175,28 @@
     </row>
     <row r="409" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A409" s="3" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
       <c r="B409" s="3" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
       <c r="C409" s="3"/>
     </row>
     <row r="410" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A410" s="3" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
       <c r="B410" s="3" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
       <c r="C410" s="3"/>
     </row>
     <row r="411" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A411" s="3" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
       <c r="B411" s="3" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
       <c r="C411" s="3"/>
     </row>
@@ -7194,28 +7207,28 @@
     </row>
     <row r="413" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A413" s="3" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
       <c r="B413" s="3" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
       <c r="C413" s="3"/>
     </row>
     <row r="414" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A414" s="3" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
       <c r="B414" s="3" t="s">
-        <v>748</v>
+        <v>747</v>
       </c>
       <c r="C414" s="3"/>
     </row>
     <row r="415" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A415" s="3" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
       <c r="B415" s="3" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
       <c r="C415" s="3"/>
     </row>
@@ -7226,28 +7239,28 @@
     </row>
     <row r="417" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A417" s="3" t="s">
-        <v>754</v>
+        <v>753</v>
       </c>
       <c r="B417" s="3" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
       <c r="C417" s="3"/>
     </row>
     <row r="418" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A418" s="3" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
       <c r="B418" s="3" t="s">
-        <v>751</v>
+        <v>750</v>
       </c>
       <c r="C418" s="3"/>
     </row>
     <row r="419" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A419" s="3" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
       <c r="B419" s="3" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
       <c r="C419" s="3"/>
     </row>
@@ -7258,28 +7271,28 @@
     </row>
     <row r="421" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A421" s="3" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="B421" s="3" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
       <c r="C421" s="3"/>
     </row>
     <row r="422" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A422" s="3" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
       <c r="B422" s="3" t="s">
-        <v>757</v>
+        <v>756</v>
       </c>
       <c r="C422" s="3"/>
     </row>
     <row r="423" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A423" s="3" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="B423" s="3" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
       <c r="C423" s="3"/>
     </row>
@@ -7290,28 +7303,28 @@
     </row>
     <row r="425" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A425" s="3" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
       <c r="B425" s="3" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="C425" s="3"/>
     </row>
     <row r="426" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A426" s="3" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
       <c r="B426" s="3" t="s">
-        <v>763</v>
+        <v>762</v>
       </c>
       <c r="C426" s="3"/>
     </row>
     <row r="427" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A427" s="3" t="s">
-        <v>766</v>
+        <v>765</v>
       </c>
       <c r="B427" s="3" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="C427" s="3"/>
     </row>
@@ -7322,28 +7335,28 @@
     </row>
     <row r="429" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A429" s="3" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="B429" s="3" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="C429" s="3"/>
     </row>
     <row r="430" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A430" s="3" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="B430" s="3" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="C430" s="3"/>
     </row>
     <row r="431" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A431" s="3" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="B431" s="3" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="C431" s="3"/>
     </row>
@@ -7354,28 +7367,28 @@
     </row>
     <row r="433" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A433" s="3" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
       <c r="B433" s="3" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
       <c r="C433" s="3"/>
     </row>
     <row r="434" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A434" s="3" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
       <c r="B434" s="3" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
       <c r="C434" s="3"/>
     </row>
     <row r="435" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A435" s="3" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
       <c r="B435" s="1" t="s">
-        <v>767</v>
+        <v>766</v>
       </c>
       <c r="C435" s="1"/>
     </row>
@@ -7386,28 +7399,28 @@
     </row>
     <row r="437" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A437" s="3" t="s">
+        <v>778</v>
+      </c>
+      <c r="B437" s="3" t="s">
         <v>779</v>
-      </c>
-      <c r="B437" s="3" t="s">
-        <v>780</v>
       </c>
       <c r="C437" s="3"/>
     </row>
     <row r="438" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A438" s="3" t="s">
-        <v>778</v>
+        <v>777</v>
       </c>
       <c r="B438" s="3" t="s">
-        <v>781</v>
+        <v>780</v>
       </c>
       <c r="C438" s="3"/>
     </row>
     <row r="439" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A439" s="3" t="s">
-        <v>777</v>
+        <v>776</v>
       </c>
       <c r="B439" s="3" t="s">
-        <v>782</v>
+        <v>781</v>
       </c>
       <c r="C439" s="3"/>
     </row>
@@ -7418,28 +7431,28 @@
     </row>
     <row r="441" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A441" s="3" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="B441" s="3" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
       <c r="C441" s="3"/>
     </row>
     <row r="442" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A442" s="3" t="s">
-        <v>787</v>
+        <v>786</v>
       </c>
       <c r="B442" s="3" t="s">
-        <v>783</v>
+        <v>782</v>
       </c>
       <c r="C442" s="3"/>
     </row>
     <row r="443" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A443" s="3" t="s">
-        <v>788</v>
+        <v>787</v>
       </c>
       <c r="B443" s="3" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
       <c r="C443" s="3"/>
     </row>
@@ -7450,28 +7463,28 @@
     </row>
     <row r="445" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A445" s="3" t="s">
-        <v>792</v>
+        <v>791</v>
       </c>
       <c r="B445" s="3" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
       <c r="C445" s="3"/>
     </row>
     <row r="446" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A446" s="3" t="s">
-        <v>793</v>
+        <v>792</v>
       </c>
       <c r="B446" s="3" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
       <c r="C446" s="3"/>
     </row>
     <row r="447" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A447" s="3" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
       <c r="B447" s="3" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
       <c r="C447" s="3"/>
     </row>
@@ -7482,28 +7495,28 @@
     </row>
     <row r="449" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A449" s="3" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
       <c r="B449" s="3" t="s">
-        <v>796</v>
+        <v>795</v>
       </c>
       <c r="C449" s="3"/>
     </row>
     <row r="450" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A450" s="3" t="s">
-        <v>799</v>
+        <v>798</v>
       </c>
       <c r="B450" s="3" t="s">
-        <v>795</v>
+        <v>794</v>
       </c>
       <c r="C450" s="3"/>
     </row>
     <row r="451" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A451" s="3" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="B451" s="3" t="s">
-        <v>797</v>
+        <v>796</v>
       </c>
       <c r="C451" s="3"/>
     </row>
@@ -7514,28 +7527,28 @@
     </row>
     <row r="453" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A453" s="3" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
       <c r="B453" s="3" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
       <c r="C453" s="3"/>
     </row>
     <row r="454" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A454" s="3" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="B454" s="3" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="C454" s="3"/>
     </row>
     <row r="455" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A455" s="3" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
       <c r="B455" s="3" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
       <c r="C455" s="3"/>
     </row>
@@ -7642,7 +7655,7 @@
         <v>157</v>
       </c>
       <c r="C2" s="15" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>11</v>
@@ -7662,7 +7675,7 @@
         <v>158</v>
       </c>
       <c r="C3" s="15" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>11</v>
@@ -7696,13 +7709,13 @@
     </row>
     <row r="5" spans="1:8" ht="91.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="C5" s="15" t="s">
         <v>226</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>234</v>
-      </c>
-      <c r="C5" s="15" t="s">
-        <v>227</v>
       </c>
       <c r="D5" s="1"/>
       <c r="E5" s="1"/>
@@ -7718,7 +7731,7 @@
         <v>170</v>
       </c>
       <c r="C6" s="15" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>11</v>
@@ -7732,13 +7745,13 @@
     </row>
     <row r="7" spans="1:8" ht="159.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
+        <v>478</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>496</v>
+      </c>
+      <c r="C7" s="15" t="s">
         <v>479</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>497</v>
-      </c>
-      <c r="C7" s="15" t="s">
-        <v>480</v>
       </c>
       <c r="D7" s="1"/>
       <c r="E7" s="1"/>
@@ -7754,7 +7767,7 @@
         <v>171</v>
       </c>
       <c r="C8" s="15" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="D8" s="1" t="s">
         <v>11</v>
@@ -7768,13 +7781,13 @@
     </row>
     <row r="9" spans="1:8" ht="153" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
+        <v>492</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>497</v>
+      </c>
+      <c r="C9" s="15" t="s">
         <v>493</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>498</v>
-      </c>
-      <c r="C9" s="15" t="s">
-        <v>494</v>
       </c>
       <c r="D9" s="1"/>
       <c r="E9" s="1"/>
@@ -7784,13 +7797,13 @@
     </row>
     <row r="10" spans="1:8" ht="153" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
+        <v>494</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>498</v>
+      </c>
+      <c r="C10" s="15" t="s">
         <v>495</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>499</v>
-      </c>
-      <c r="C10" s="15" t="s">
-        <v>496</v>
       </c>
       <c r="D10" s="1"/>
       <c r="E10" s="1"/>
@@ -7820,13 +7833,13 @@
     </row>
     <row r="12" spans="1:8" ht="99" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="C12" s="15" t="s">
         <v>205</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>207</v>
-      </c>
-      <c r="C12" s="15" t="s">
-        <v>206</v>
       </c>
       <c r="D12" s="1"/>
       <c r="E12" s="1"/>
@@ -7836,13 +7849,13 @@
     </row>
     <row r="13" spans="1:8" ht="103.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="C13" s="15" t="s">
         <v>224</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>207</v>
-      </c>
-      <c r="C13" s="15" t="s">
-        <v>225</v>
       </c>
       <c r="D13" s="1"/>
       <c r="E13" s="1"/>
